--- a/xlsx/Volkswagen_intext.xlsx
+++ b/xlsx/Volkswagen_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="375">
   <si>
     <t>Volkswagen</t>
   </si>
@@ -29,13 +29,13 @@
     <t>上市公司</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_Volkswagen</t>
+    <t>政策_政策_混合动力车辆_Volkswagen</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8%E4%BB%A3%E8%99%9F</t>
   </si>
   <si>
-    <t>股票代號</t>
+    <t>股票代号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E5%85%8B%E7%A6%8F%E8%AF%81%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E8%96%A9%E5%85%8B%E6%A3%AE</t>
   </si>
   <si>
-    <t>下薩克森</t>
+    <t>下萨克森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E5%A4%AB%E6%96%AF%E5%A0%A1</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -107,13 +107,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
   </si>
   <si>
-    <t>德国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>福斯集團</t>
+    <t>福斯集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91</t>
@@ -131,7 +128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E8%BF%AA%E5%8D%97%C2%B7%E4%BF%9D%E6%99%82%E6%8D%B7</t>
   </si>
   <si>
-    <t>費迪南·保時捷</t>
+    <t>费迪南·保时捷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BC%97%E7%94%B2%E5%A3%B3%E8%99%AB</t>
@@ -149,25 +146,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E9%A6%AC%E5%85%8B</t>
   </si>
   <si>
-    <t>德國馬克</t>
+    <t>德国马克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>福特汽車</t>
+    <t>福特汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9C%96%E5%8A%A0%E7%89%B9</t>
   </si>
   <si>
-    <t>斯圖加特</t>
+    <t>斯图加特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9B%E9%87%8F%E6%9D%A5%E8%87%AA%E6%AC%A2%E4%B9%90</t>
@@ -191,7 +188,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%A0%A1</t>
@@ -203,7 +200,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E9%A6%99%E6%B8%AF</t>
   </si>
   <si>
-    <t>英屬香港</t>
+    <t>英属香港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7</t>
@@ -233,37 +230,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>電子</t>
+    <t>电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%B2%E5%A3%93</t>
   </si>
   <si>
-    <t>液壓</t>
+    <t>液压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>電腦</t>
+    <t>电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>通用汽車</t>
+    <t>通用汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B8%E5%90%8A%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>懸吊系統</t>
+    <t>悬吊系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E6%B1%BD%E8%BB%8AGolf</t>
   </si>
   <si>
-    <t>福斯汽車Golf</t>
+    <t>福斯汽车Golf</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%9B%98</t>
@@ -275,7 +272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E6%87%B8%E5%90%8A%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>獨立懸吊系統</t>
+    <t>独立悬吊系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BC%97%E9%9D%A2%E5%8C%85%E8%BD%A6</t>
@@ -293,7 +290,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A3%AB</t>
   </si>
   <si>
-    <t>賓士</t>
+    <t>宾士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Audi</t>
@@ -305,7 +302,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>總理</t>
+    <t>总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%97%B6%E6%8D%B7</t>
@@ -317,19 +314,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%88%B4%E6%9C%A8%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>鈴木汽車</t>
+    <t>铃木汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E9%9B%86%E5%9C%98%E6%B1%BD%E8%BB%8A%E8%88%9E%E5%BC%8A%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>福斯集團汽車舞弊事件</t>
+    <t>福斯集团汽车舞弊事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B4%E6%B2%B9%E8%BB%8A</t>
   </si>
   <si>
-    <t>柴油車</t>
+    <t>柴油车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E6%B0%A7%E5%8C%96%E6%B0%AE</t>
@@ -347,31 +344,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西維吉尼亞大學</t>
+    <t>西维吉尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E5%AE%A4</t>
   </si>
   <si>
-    <t>實驗室</t>
+    <t>实验室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E5%8D%83%E7%A6%A7%E5%B9%B4%E8%91%97%E4%BD%9C%E6%AC%8A%E6%B3%95</t>
   </si>
   <si>
-    <t>數位千禧年著作權法</t>
+    <t>数位千禧年着作权法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>軟體</t>
+    <t>软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國聯邦政府</t>
+    <t>美国联邦政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -383,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%80%85</t>
   </si>
   <si>
-    <t>消費者</t>
+    <t>消费者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4</t>
@@ -413,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BC%97%E6%96%B0%E7%94%B2%E5%A3%B3%E8%99%AB</t>
@@ -497,19 +494,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%99%82%E6%8D%B7</t>
   </si>
   <si>
-    <t>保時捷</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9B%BE%E5%8A%A0%E7%89%B9</t>
   </si>
   <si>
-    <t>斯图加特</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E8%BF%AA%E5%8D%97%C2%B7%E4%BF%9D%E6%99%82%E6%8D%B7</t>
   </si>
   <si>
-    <t>斐迪南·保時捷</t>
+    <t>斐迪南·保时捷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Porsche_Cayenne</t>
@@ -527,13 +518,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%85%83</t>
   </si>
   <si>
-    <t>歐元</t>
+    <t>欧元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E5%A7%86%E5%8B%92-%E8%B3%93%E5%A3%AB</t>
   </si>
   <si>
-    <t>戴姆勒-賓士</t>
+    <t>戴姆勒-宾士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NSU</t>
@@ -569,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E5%AF%B6%E5%A0%85%E5%B0%BC</t>
   </si>
   <si>
-    <t>藍寶堅尼</t>
+    <t>蓝宝坚尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E5%A4%A7%E4%BC%97%E6%B1%BD%E8%BD%A6%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
@@ -587,13 +578,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E6%B1%BD%E8%BB%8A%E4%BD%9C%E5%BC%8A%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>大眾汽車作弊事件</t>
+    <t>大众汽车作弊事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E9%8D%B5%E8%A9%95%E8%AB%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>關鍵評論網</t>
+    <t>关键评论网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Automotive_industry_in_Germany</t>
@@ -611,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>德國經濟</t>
+    <t>德国经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E4%BA%A4%E9%80%9A</t>
@@ -779,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/NSU%E8%BB%8A%E5%BB%A0</t>
   </si>
   <si>
-    <t>NSU車廠</t>
+    <t>NSU车厂</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Wanderer_(car)</t>
@@ -791,7 +782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%98%9F_(%E8%BD%8E%E8%BB%8A)</t>
   </si>
   <si>
-    <t>衛星 (轎車)</t>
+    <t>卫星 (轿车)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hansa_(car)</t>
@@ -893,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%89%B9%E6%8B%89%E5%85%8B%E5%82%B3%E5%8B%95%E7%B3%BB%E7%B5%B1%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>格特拉克傳動系統有限公司</t>
+    <t>格特拉克传动系统有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%8B%89</t>
@@ -1007,7 +998,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%E6%A3%AE</t>
   </si>
   <si>
-    <t>卡爾森</t>
+    <t>卡尔森</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/G-Power</t>
@@ -1097,7 +1088,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%AD%E5%85%8B%E6%96%AF%E7%89%B9%E7%A7%9F%E8%BB%8A</t>
   </si>
   <si>
-    <t>席克斯特租車</t>
+    <t>席克斯特租车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%BE%B7%E6%B1%BD%E8%BD%A6%E4%BF%B1%E4%B9%90%E9%83%A8</t>
@@ -1121,19 +1112,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%88%BF%E8%BB%8A%E5%A4%A7%E5%B8%AB%E8%B3%BD</t>
   </si>
   <si>
-    <t>德國房車大師賽</t>
+    <t>德国房车大师赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F%E8%BB%8A%E5%B1%95</t>
   </si>
   <si>
-    <t>法蘭克福車展</t>
+    <t>法兰克福车展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%B1%BD%E8%BB%8A%E5%B7%A5%E6%A5%AD%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>德國汽車工業協會</t>
+    <t>德国汽车工业协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E5%8D%9A%E6%A0%BC%E6%9E%97%E8%B5%9B%E9%81%93</t>
@@ -1954,7 +1945,7 @@
         <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
         <v>9</v>
@@ -1980,10 +1971,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
         <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -2009,10 +2000,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
         <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -2038,10 +2029,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
         <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -2067,10 +2058,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -2096,10 +2087,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
@@ -2125,10 +2116,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2154,10 +2145,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2183,10 +2174,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2212,10 +2203,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -2241,10 +2232,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2270,10 +2261,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2299,10 +2290,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2328,10 +2319,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2357,10 +2348,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>4</v>
@@ -2386,10 +2377,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2415,10 +2406,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" t="s">
         <v>39</v>
-      </c>
-      <c r="F32" t="s">
-        <v>40</v>
       </c>
       <c r="G32" t="n">
         <v>4</v>
@@ -2444,10 +2435,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
         <v>61</v>
-      </c>
-      <c r="F33" t="s">
-        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>3</v>
@@ -2473,10 +2464,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
         <v>63</v>
-      </c>
-      <c r="F34" t="s">
-        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
@@ -2502,10 +2493,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
         <v>65</v>
-      </c>
-      <c r="F35" t="s">
-        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2531,10 +2522,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
         <v>67</v>
-      </c>
-      <c r="F36" t="s">
-        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2560,10 +2551,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
         <v>69</v>
-      </c>
-      <c r="F37" t="s">
-        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2589,10 +2580,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
         <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2618,10 +2609,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
         <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2647,10 +2638,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2676,10 +2667,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2705,10 +2696,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -2734,10 +2725,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>5</v>
@@ -2763,10 +2754,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2792,10 +2783,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2821,10 +2812,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s">
         <v>87</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2850,10 +2841,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
         <v>89</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>9</v>
@@ -2879,10 +2870,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2908,10 +2899,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -2937,10 +2928,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2966,10 +2957,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2995,10 +2986,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3024,10 +3015,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3053,10 +3044,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -3082,10 +3073,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3111,10 +3102,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>5</v>
@@ -3140,10 +3131,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -3169,10 +3160,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3198,10 +3189,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3227,10 +3218,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>4</v>
@@ -3256,10 +3247,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3285,10 +3276,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>11</v>
@@ -3314,10 +3305,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>3</v>
@@ -3343,10 +3334,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>8</v>
@@ -3372,10 +3363,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>4</v>
@@ -3401,10 +3392,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3430,10 +3421,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>86</v>
+      </c>
+      <c r="F67" t="s">
         <v>87</v>
-      </c>
-      <c r="F67" t="s">
-        <v>88</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3459,10 +3450,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" t="s">
         <v>129</v>
-      </c>
-      <c r="F68" t="s">
-        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3488,10 +3479,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" t="s">
         <v>131</v>
-      </c>
-      <c r="F69" t="s">
-        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -3517,10 +3508,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" t="s">
         <v>39</v>
-      </c>
-      <c r="F70" t="s">
-        <v>40</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3546,10 +3537,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>132</v>
+      </c>
+      <c r="F71" t="s">
         <v>133</v>
-      </c>
-      <c r="F71" t="s">
-        <v>134</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3575,10 +3566,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>134</v>
+      </c>
+      <c r="F72" t="s">
         <v>135</v>
-      </c>
-      <c r="F72" t="s">
-        <v>136</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3604,10 +3595,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" t="s">
         <v>137</v>
-      </c>
-      <c r="F73" t="s">
-        <v>138</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -3633,10 +3624,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>138</v>
+      </c>
+      <c r="F74" t="s">
         <v>139</v>
-      </c>
-      <c r="F74" t="s">
-        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3662,10 +3653,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>140</v>
+      </c>
+      <c r="F75" t="s">
         <v>141</v>
-      </c>
-      <c r="F75" t="s">
-        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3691,10 +3682,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>142</v>
+      </c>
+      <c r="F76" t="s">
         <v>143</v>
-      </c>
-      <c r="F76" t="s">
-        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>13</v>
@@ -3720,10 +3711,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>144</v>
+      </c>
+      <c r="F77" t="s">
         <v>145</v>
-      </c>
-      <c r="F77" t="s">
-        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3749,10 +3740,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>146</v>
+      </c>
+      <c r="F78" t="s">
         <v>147</v>
-      </c>
-      <c r="F78" t="s">
-        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3778,10 +3769,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>148</v>
+      </c>
+      <c r="F79" t="s">
         <v>149</v>
-      </c>
-      <c r="F79" t="s">
-        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3807,10 +3798,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>150</v>
+      </c>
+      <c r="F80" t="s">
         <v>151</v>
-      </c>
-      <c r="F80" t="s">
-        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3836,10 +3827,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>152</v>
+      </c>
+      <c r="F81" t="s">
         <v>153</v>
-      </c>
-      <c r="F81" t="s">
-        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3865,10 +3856,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>154</v>
+      </c>
+      <c r="F82" t="s">
         <v>155</v>
-      </c>
-      <c r="F82" t="s">
-        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3894,10 +3885,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>156</v>
+      </c>
+      <c r="F83" t="s">
         <v>157</v>
-      </c>
-      <c r="F83" t="s">
-        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3923,10 +3914,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>86</v>
+      </c>
+      <c r="F84" t="s">
         <v>87</v>
-      </c>
-      <c r="F84" t="s">
-        <v>88</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3952,10 +3943,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F85" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="G85" t="n">
         <v>18</v>
@@ -3981,10 +3972,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F86" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4010,10 +4001,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F87" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4039,10 +4030,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F88" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4068,10 +4059,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F89" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4097,10 +4088,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F90" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G90" t="n">
         <v>4</v>
@@ -4126,10 +4117,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>30</v>
+      </c>
+      <c r="F91" t="s">
         <v>31</v>
-      </c>
-      <c r="F91" t="s">
-        <v>32</v>
       </c>
       <c r="G91" t="n">
         <v>5</v>
@@ -4155,10 +4146,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92" t="s">
         <v>31</v>
-      </c>
-      <c r="F92" t="s">
-        <v>32</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4184,10 +4175,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F93" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4213,10 +4204,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F94" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4242,10 +4233,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F95" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4271,10 +4262,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F96" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4300,10 +4291,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F97" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4329,10 +4320,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F98" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4358,10 +4349,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F99" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4387,10 +4378,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F100" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4416,10 +4407,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F101" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4445,10 +4436,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F102" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4474,10 +4465,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F103" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4503,10 +4494,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F104" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4532,10 +4523,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F105" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -4561,10 +4552,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F106" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4590,10 +4581,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F107" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4619,10 +4610,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F108" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4648,10 +4639,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F109" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -4677,10 +4668,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F110" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4706,10 +4697,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F111" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4735,10 +4726,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F112" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4764,10 +4755,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F113" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4793,10 +4784,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F114" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -4822,10 +4813,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F115" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4851,10 +4842,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F116" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4880,10 +4871,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F117" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4909,10 +4900,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F118" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4938,10 +4929,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F119" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -4967,10 +4958,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F120" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4996,10 +4987,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F121" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5025,10 +5016,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F122" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5054,10 +5045,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F123" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5083,10 +5074,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -5112,10 +5103,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F125" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5141,10 +5132,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F126" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5170,10 +5161,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F127" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5199,10 +5190,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F128" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5228,10 +5219,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F129" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5257,10 +5248,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F130" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5286,10 +5277,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F131" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5315,10 +5306,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F132" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5344,10 +5335,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F133" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5373,10 +5364,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F134" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5402,10 +5393,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F135" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5431,10 +5422,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F136" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5460,10 +5451,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F137" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5489,10 +5480,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F138" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5518,10 +5509,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F139" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5547,10 +5538,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F140" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -5576,10 +5567,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F141" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -5605,10 +5596,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F142" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5634,10 +5625,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F143" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -5663,10 +5654,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F144" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5692,10 +5683,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F145" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5721,10 +5712,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F146" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5750,10 +5741,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F147" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -5779,10 +5770,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F148" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -5808,10 +5799,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F149" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5837,10 +5828,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F150" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -5866,10 +5857,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F151" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5895,10 +5886,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F152" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -5924,10 +5915,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F153" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -5953,10 +5944,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F154" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5982,10 +5973,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F155" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6011,10 +6002,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F156" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6040,10 +6031,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F157" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6069,10 +6060,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F158" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -6098,10 +6089,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F159" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6127,10 +6118,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F160" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6156,10 +6147,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F161" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6185,10 +6176,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F162" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6214,10 +6205,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6243,10 +6234,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6272,10 +6263,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6301,10 +6292,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6330,10 +6321,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F167" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6359,10 +6350,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6388,10 +6379,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F169" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6417,10 +6408,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F170" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6446,10 +6437,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F171" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6475,10 +6466,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F172" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6504,10 +6495,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6533,10 +6524,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -6562,10 +6553,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -6591,10 +6582,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -6620,10 +6611,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -6649,10 +6640,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -6678,10 +6669,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -6707,10 +6698,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F180" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -6736,10 +6727,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F181" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -6765,10 +6756,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6794,10 +6785,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -6823,10 +6814,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -6852,10 +6843,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -6881,10 +6872,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -6910,10 +6901,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F187" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6939,10 +6930,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F188" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -6968,10 +6959,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -6997,10 +6988,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7026,10 +7017,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7055,10 +7046,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7084,10 +7075,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7113,10 +7104,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7142,10 +7133,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F195" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7171,10 +7162,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F196" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G196" t="n">
         <v>4</v>
@@ -7200,10 +7191,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F197" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
